--- a/Resources/sportsref_team_21.xlsx
+++ b/Resources/sportsref_team_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99584ccd66595d1f/Documents/mathletics/NBA practice/nba21analysis/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D546747-3FC4-4891-A6F2-C71567198F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2FCE5E9-28B3-401A-BD88-845A8E25E404}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>Rk</t>
   </si>
@@ -100,58 +100,61 @@
     <t>Brooklyn Nets</t>
   </si>
   <si>
+    <t>Philadelphia 76ers</t>
+  </si>
+  <si>
     <t>Los Angeles Clippers</t>
   </si>
   <si>
+    <t>Milwaukee Bucks</t>
+  </si>
+  <si>
+    <t>Denver Nuggets</t>
+  </si>
+  <si>
+    <t>Golden State Warriors</t>
+  </si>
+  <si>
+    <t>New Orleans Pelicans</t>
+  </si>
+  <si>
+    <t>Sacramento Kings</t>
+  </si>
+  <si>
+    <t>Portland Trail Blazers</t>
+  </si>
+  <si>
+    <t>Los Angeles Lakers</t>
+  </si>
+  <si>
     <t>Utah Jazz</t>
   </si>
   <si>
-    <t>Milwaukee Bucks</t>
-  </si>
-  <si>
-    <t>Denver Nuggets</t>
-  </si>
-  <si>
-    <t>Golden State Warriors</t>
-  </si>
-  <si>
-    <t>New Orleans Pelicans</t>
-  </si>
-  <si>
-    <t>Philadelphia 76ers</t>
-  </si>
-  <si>
-    <t>Portland Trail Blazers</t>
-  </si>
-  <si>
-    <t>Sacramento Kings</t>
-  </si>
-  <si>
     <t>Atlanta Hawks</t>
   </si>
   <si>
     <t>Toronto Raptors</t>
   </si>
   <si>
-    <t>Los Angeles Lakers</t>
-  </si>
-  <si>
     <t>Washington Wizards</t>
   </si>
   <si>
+    <t>Boston Celtics</t>
+  </si>
+  <si>
+    <t>Phoenix Suns</t>
+  </si>
+  <si>
+    <t>Chicago Bulls</t>
+  </si>
+  <si>
+    <t>Indiana Pacers</t>
+  </si>
+  <si>
     <t>Minnesota Timberwolves</t>
   </si>
   <si>
-    <t>Boston Celtics</t>
-  </si>
-  <si>
-    <t>Chicago Bulls</t>
-  </si>
-  <si>
-    <t>Phoenix Suns</t>
-  </si>
-  <si>
-    <t>Indiana Pacers</t>
+    <t>Dallas Mavericks</t>
   </si>
   <si>
     <t>Charlotte Hornets</t>
@@ -160,15 +163,12 @@
     <t>Miami Heat</t>
   </si>
   <si>
-    <t>Dallas Mavericks</t>
+    <t>New York Knicks</t>
   </si>
   <si>
     <t>Detroit Pistons</t>
   </si>
   <si>
-    <t>New York Knicks</t>
-  </si>
-  <si>
     <t>Oklahoma City Thunder</t>
   </si>
   <si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>San Antonio Spurs</t>
-  </si>
-  <si>
-    <t>League Average</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1033,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1144,34 +1143,34 @@
         <v>25</v>
       </c>
       <c r="C2" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D2" s="2">
-        <v>243</v>
+        <v>242.9</v>
       </c>
       <c r="E2" s="2">
         <v>43.7</v>
       </c>
       <c r="F2" s="2">
-        <v>87.3</v>
+        <v>87.4</v>
       </c>
       <c r="G2" s="2">
         <v>0.5</v>
       </c>
       <c r="H2" s="2">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="I2" s="2">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J2" s="2">
-        <v>0.4</v>
+        <v>0.39900000000000002</v>
       </c>
       <c r="K2" s="2">
-        <v>28.8</v>
+        <v>29</v>
       </c>
       <c r="L2" s="2">
-        <v>50.3</v>
+        <v>50.5</v>
       </c>
       <c r="M2" s="2">
         <v>0.57299999999999995</v>
@@ -1183,34 +1182,34 @@
         <v>22.8</v>
       </c>
       <c r="P2" s="2">
-        <v>0.79900000000000004</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="Q2" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="R2" s="2">
-        <v>35.4</v>
+        <v>35.1</v>
       </c>
       <c r="S2" s="2">
-        <v>44</v>
+        <v>43.8</v>
       </c>
       <c r="T2" s="2">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="U2" s="2">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="V2" s="2">
         <v>5.3</v>
       </c>
       <c r="W2" s="2">
-        <v>14.3</v>
+        <v>14.1</v>
       </c>
       <c r="X2" s="2">
         <v>19</v>
       </c>
       <c r="Y2" s="2">
-        <v>120.4</v>
+        <v>120.2</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1221,73 +1220,73 @@
         <v>26</v>
       </c>
       <c r="C3" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="2">
-        <v>240</v>
+        <v>242.9</v>
       </c>
       <c r="E3" s="2">
-        <v>41.8</v>
+        <v>42.1</v>
       </c>
       <c r="F3" s="2">
-        <v>86.8</v>
+        <v>87.7</v>
       </c>
       <c r="G3" s="2">
-        <v>0.48199999999999998</v>
+        <v>0.48</v>
       </c>
       <c r="H3" s="2">
-        <v>14.4</v>
+        <v>10.8</v>
       </c>
       <c r="I3" s="2">
-        <v>34.700000000000003</v>
+        <v>29.1</v>
       </c>
       <c r="J3" s="2">
-        <v>0.41499999999999998</v>
+        <v>0.372</v>
       </c>
       <c r="K3" s="2">
-        <v>27.4</v>
+        <v>31.3</v>
       </c>
       <c r="L3" s="2">
-        <v>52.1</v>
+        <v>58.6</v>
       </c>
       <c r="M3" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.53400000000000003</v>
       </c>
       <c r="N3" s="2">
-        <v>16.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="O3" s="2">
-        <v>19.600000000000001</v>
+        <v>25.7</v>
       </c>
       <c r="P3" s="2">
-        <v>0.83899999999999997</v>
+        <v>0.78</v>
       </c>
       <c r="Q3" s="2">
-        <v>9.5</v>
+        <v>10.3</v>
       </c>
       <c r="R3" s="2">
-        <v>34.6</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="S3" s="2">
-        <v>44.1</v>
+        <v>46.5</v>
       </c>
       <c r="T3" s="2">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="U3" s="2">
-        <v>7.3</v>
+        <v>8.9</v>
       </c>
       <c r="V3" s="2">
-        <v>4.4000000000000004</v>
+        <v>6.3</v>
       </c>
       <c r="W3" s="2">
-        <v>13.1</v>
+        <v>15.4</v>
       </c>
       <c r="X3" s="2">
-        <v>19.100000000000001</v>
+        <v>20.2</v>
       </c>
       <c r="Y3" s="2">
-        <v>114.5</v>
+        <v>115.1</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1298,73 +1297,73 @@
         <v>27</v>
       </c>
       <c r="C4" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D4" s="2">
-        <v>240.6</v>
+        <v>240</v>
       </c>
       <c r="E4" s="2">
-        <v>41.1</v>
+        <v>41.9</v>
       </c>
       <c r="F4" s="2">
-        <v>87.9</v>
+        <v>86.8</v>
       </c>
       <c r="G4" s="2">
-        <v>0.46700000000000003</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="H4" s="2">
-        <v>16.899999999999999</v>
+        <v>14.3</v>
       </c>
       <c r="I4" s="2">
-        <v>42.8</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="J4" s="2">
-        <v>0.39500000000000002</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="K4" s="2">
-        <v>24.2</v>
+        <v>27.6</v>
       </c>
       <c r="L4" s="2">
-        <v>45.1</v>
+        <v>52.1</v>
       </c>
       <c r="M4" s="2">
-        <v>0.53500000000000003</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="N4" s="2">
-        <v>17.7</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O4" s="2">
-        <v>22.6</v>
+        <v>19.7</v>
       </c>
       <c r="P4" s="2">
-        <v>0.78100000000000003</v>
+        <v>0.84299999999999997</v>
       </c>
       <c r="Q4" s="2">
-        <v>11</v>
+        <v>9.4</v>
       </c>
       <c r="R4" s="2">
-        <v>36.9</v>
+        <v>34.6</v>
       </c>
       <c r="S4" s="2">
-        <v>47.8</v>
+        <v>44</v>
       </c>
       <c r="T4" s="2">
-        <v>23.7</v>
+        <v>24.3</v>
       </c>
       <c r="U4" s="2">
-        <v>6.5</v>
+        <v>7.4</v>
       </c>
       <c r="V4" s="2">
-        <v>5.4</v>
+        <v>4.3</v>
       </c>
       <c r="W4" s="2">
-        <v>14.4</v>
+        <v>13.1</v>
       </c>
       <c r="X4" s="2">
-        <v>18.899999999999999</v>
+        <v>19.2</v>
       </c>
       <c r="Y4" s="2">
-        <v>116.7</v>
+        <v>114.7</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1375,7 +1374,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D5" s="2">
         <v>240.6</v>
@@ -1390,13 +1389,13 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="H5" s="2">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="I5" s="2">
         <v>37.5</v>
       </c>
       <c r="J5" s="2">
-        <v>0.38600000000000001</v>
+        <v>0.38500000000000001</v>
       </c>
       <c r="K5" s="2">
         <v>30</v>
@@ -1405,22 +1404,22 @@
         <v>54.1</v>
       </c>
       <c r="M5" s="2">
-        <v>0.55400000000000005</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="N5" s="2">
-        <v>16.2</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="O5" s="2">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="P5" s="2">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="Q5" s="2">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="R5" s="2">
-        <v>38</v>
+        <v>38.1</v>
       </c>
       <c r="S5" s="2">
         <v>48.5</v>
@@ -1429,7 +1428,7 @@
         <v>26</v>
       </c>
       <c r="U5" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.1</v>
       </c>
       <c r="V5" s="2">
         <v>4.8</v>
@@ -1438,7 +1437,7 @@
         <v>13.9</v>
       </c>
       <c r="X5" s="2">
-        <v>17.8</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Y5" s="2">
         <v>119.5</v>
@@ -1452,10 +1451,10 @@
         <v>29</v>
       </c>
       <c r="C6" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2">
-        <v>243.7</v>
+        <v>243.6</v>
       </c>
       <c r="E6" s="2">
         <v>43.6</v>
@@ -1473,7 +1472,7 @@
         <v>34.700000000000003</v>
       </c>
       <c r="J6" s="2">
-        <v>0.38900000000000001</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="K6" s="2">
         <v>30.1</v>
@@ -1482,25 +1481,25 @@
         <v>54.6</v>
       </c>
       <c r="M6" s="2">
-        <v>0.55100000000000005</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="N6" s="2">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="O6" s="2">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="P6" s="2">
-        <v>0.78300000000000003</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="Q6" s="2">
         <v>10.199999999999999</v>
       </c>
       <c r="R6" s="2">
-        <v>33.9</v>
+        <v>33.700000000000003</v>
       </c>
       <c r="S6" s="2">
-        <v>44</v>
+        <v>43.9</v>
       </c>
       <c r="T6" s="2">
         <v>26.9</v>
@@ -1512,13 +1511,13 @@
         <v>4.3</v>
       </c>
       <c r="W6" s="2">
-        <v>13.4</v>
+        <v>13.5</v>
       </c>
       <c r="X6" s="2">
-        <v>19.100000000000001</v>
+        <v>19.3</v>
       </c>
       <c r="Y6" s="2">
-        <v>116</v>
+        <v>115.9</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1529,58 +1528,58 @@
         <v>30</v>
       </c>
       <c r="C7" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D7" s="2">
         <v>240.6</v>
       </c>
       <c r="E7" s="2">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2">
         <v>88.8</v>
       </c>
       <c r="G7" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H7" s="2">
         <v>13.9</v>
       </c>
       <c r="I7" s="2">
-        <v>37.799999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="J7" s="2">
-        <v>0.36699999999999999</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="K7" s="2">
-        <v>27.3</v>
+        <v>27.1</v>
       </c>
       <c r="L7" s="2">
-        <v>51</v>
+        <v>50.9</v>
       </c>
       <c r="M7" s="2">
-        <v>0.53600000000000003</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="N7" s="2">
-        <v>16.899999999999999</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O7" s="2">
-        <v>21.8</v>
+        <v>22.1</v>
       </c>
       <c r="P7" s="2">
-        <v>0.77400000000000002</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="Q7" s="2">
         <v>7.9</v>
       </c>
       <c r="R7" s="2">
-        <v>35.200000000000003</v>
+        <v>35.299999999999997</v>
       </c>
       <c r="S7" s="2">
-        <v>43</v>
+        <v>43.1</v>
       </c>
       <c r="T7" s="2">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="U7" s="2">
         <v>8.1999999999999993</v>
@@ -1589,13 +1588,13 @@
         <v>4.9000000000000004</v>
       </c>
       <c r="W7" s="2">
-        <v>14.9</v>
+        <v>14.8</v>
       </c>
       <c r="X7" s="2">
         <v>21.8</v>
       </c>
       <c r="Y7" s="2">
-        <v>113.1</v>
+        <v>112.9</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1606,13 +1605,13 @@
         <v>31</v>
       </c>
       <c r="C8" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2">
         <v>241.2</v>
       </c>
       <c r="E8" s="2">
-        <v>43</v>
+        <v>42.9</v>
       </c>
       <c r="F8" s="2">
         <v>88.5</v>
@@ -1621,13 +1620,13 @@
         <v>0.48499999999999999</v>
       </c>
       <c r="H8" s="2">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="I8" s="2">
-        <v>31.7</v>
+        <v>31.6</v>
       </c>
       <c r="J8" s="2">
-        <v>0.35599999999999998</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="K8" s="2">
         <v>31.7</v>
@@ -1636,22 +1635,22 @@
         <v>56.8</v>
       </c>
       <c r="M8" s="2">
-        <v>0.55700000000000005</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="N8" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="O8" s="2">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="P8" s="2">
-        <v>0.73099999999999998</v>
+        <v>0.73199999999999998</v>
       </c>
       <c r="Q8" s="2">
         <v>11.8</v>
       </c>
       <c r="R8" s="2">
-        <v>34.700000000000003</v>
+        <v>34.6</v>
       </c>
       <c r="S8" s="2">
         <v>46.5</v>
@@ -1663,16 +1662,16 @@
         <v>7.2</v>
       </c>
       <c r="V8" s="2">
-        <v>4</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="W8" s="2">
         <v>14.2</v>
       </c>
       <c r="X8" s="2">
-        <v>17.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="Y8" s="2">
-        <v>115.4</v>
+        <v>115.3</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1683,73 +1682,73 @@
         <v>32</v>
       </c>
       <c r="C9" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2">
-        <v>242.4</v>
+        <v>240.6</v>
       </c>
       <c r="E9" s="2">
-        <v>42.1</v>
+        <v>42.8</v>
       </c>
       <c r="F9" s="2">
-        <v>87.9</v>
+        <v>89.3</v>
       </c>
       <c r="G9" s="2">
         <v>0.47899999999999998</v>
       </c>
       <c r="H9" s="2">
-        <v>10.8</v>
+        <v>11.9</v>
       </c>
       <c r="I9" s="2">
-        <v>29.3</v>
+        <v>33</v>
       </c>
       <c r="J9" s="2">
-        <v>0.36799999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="K9" s="2">
-        <v>31.3</v>
+        <v>30.9</v>
       </c>
       <c r="L9" s="2">
-        <v>58.5</v>
+        <v>56.3</v>
       </c>
       <c r="M9" s="2">
-        <v>0.53400000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="N9" s="2">
-        <v>20.2</v>
+        <v>17.100000000000001</v>
       </c>
       <c r="O9" s="2">
-        <v>25.7</v>
+        <v>23.5</v>
       </c>
       <c r="P9" s="2">
-        <v>0.78400000000000003</v>
+        <v>0.72599999999999998</v>
       </c>
       <c r="Q9" s="2">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="R9" s="2">
-        <v>36</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="S9" s="2">
-        <v>46.5</v>
+        <v>42.6</v>
       </c>
       <c r="T9" s="2">
-        <v>23.8</v>
+        <v>26</v>
       </c>
       <c r="U9" s="2">
-        <v>8.9</v>
+        <v>6.6</v>
       </c>
       <c r="V9" s="2">
-        <v>6.4</v>
+        <v>4.7</v>
       </c>
       <c r="W9" s="2">
-        <v>15.4</v>
+        <v>13.4</v>
       </c>
       <c r="X9" s="2">
-        <v>20.2</v>
+        <v>20</v>
       </c>
       <c r="Y9" s="2">
-        <v>115.1</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1760,28 +1759,28 @@
         <v>33</v>
       </c>
       <c r="C10" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D10" s="2">
         <v>240.6</v>
       </c>
       <c r="E10" s="2">
-        <v>40.5</v>
+        <v>40.4</v>
       </c>
       <c r="F10" s="2">
         <v>90.6</v>
       </c>
       <c r="G10" s="2">
-        <v>0.44700000000000001</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="H10" s="2">
-        <v>16.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I10" s="2">
         <v>42.5</v>
       </c>
       <c r="J10" s="2">
-        <v>0.38300000000000001</v>
+        <v>0.38</v>
       </c>
       <c r="K10" s="2">
         <v>24.2</v>
@@ -1793,25 +1792,25 @@
         <v>0.503</v>
       </c>
       <c r="N10" s="2">
-        <v>17.7</v>
+        <v>17.600000000000001</v>
       </c>
       <c r="O10" s="2">
-        <v>21.2</v>
+        <v>21.1</v>
       </c>
       <c r="P10" s="2">
-        <v>0.83499999999999996</v>
+        <v>0.83399999999999996</v>
       </c>
       <c r="Q10" s="2">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="R10" s="2">
-        <v>33.200000000000003</v>
+        <v>33</v>
       </c>
       <c r="S10" s="2">
-        <v>43.7</v>
+        <v>43.5</v>
       </c>
       <c r="T10" s="2">
-        <v>20</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="U10" s="2">
         <v>7.1</v>
@@ -1820,13 +1819,13 @@
         <v>5</v>
       </c>
       <c r="W10" s="2">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="X10" s="2">
-        <v>19.399999999999999</v>
+        <v>19.3</v>
       </c>
       <c r="Y10" s="2">
-        <v>115</v>
+        <v>114.5</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1837,73 +1836,73 @@
         <v>34</v>
       </c>
       <c r="C11" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2">
-        <v>240.6</v>
+        <v>242.9</v>
       </c>
       <c r="E11" s="2">
-        <v>42.9</v>
+        <v>41.7</v>
       </c>
       <c r="F11" s="2">
-        <v>89.4</v>
+        <v>86.4</v>
       </c>
       <c r="G11" s="2">
-        <v>0.48</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="H11" s="2">
-        <v>11.9</v>
+        <v>10.6</v>
       </c>
       <c r="I11" s="2">
-        <v>33.1</v>
+        <v>30.3</v>
       </c>
       <c r="J11" s="2">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="K11" s="2">
-        <v>31</v>
+        <v>31.1</v>
       </c>
       <c r="L11" s="2">
-        <v>56.3</v>
+        <v>56</v>
       </c>
       <c r="M11" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.55400000000000005</v>
       </c>
       <c r="N11" s="2">
-        <v>17.100000000000001</v>
+        <v>17.5</v>
       </c>
       <c r="O11" s="2">
         <v>23.4</v>
       </c>
       <c r="P11" s="2">
-        <v>0.72899999999999998</v>
+        <v>0.748</v>
       </c>
       <c r="Q11" s="2">
-        <v>10.4</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="R11" s="2">
-        <v>32.299999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="S11" s="2">
-        <v>42.8</v>
+        <v>45.4</v>
       </c>
       <c r="T11" s="2">
-        <v>25.9</v>
+        <v>24.7</v>
       </c>
       <c r="U11" s="2">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="V11" s="2">
-        <v>4.8</v>
+        <v>5.8</v>
       </c>
       <c r="W11" s="2">
-        <v>13.6</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y11" s="2">
-        <v>114.8</v>
+        <v>111.5</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1917,70 +1916,70 @@
         <v>41</v>
       </c>
       <c r="D12" s="2">
-        <v>241.2</v>
+        <v>240.6</v>
       </c>
       <c r="E12" s="2">
-        <v>39.799999999999997</v>
+        <v>41.1</v>
       </c>
       <c r="F12" s="2">
-        <v>86.8</v>
+        <v>87.9</v>
       </c>
       <c r="G12" s="2">
-        <v>0.45800000000000002</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="H12" s="2">
-        <v>12.7</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I12" s="2">
-        <v>34.9</v>
+        <v>42.8</v>
       </c>
       <c r="J12" s="2">
-        <v>0.36499999999999999</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="K12" s="2">
-        <v>27</v>
+        <v>24.2</v>
       </c>
       <c r="L12" s="2">
-        <v>51.9</v>
+        <v>45.1</v>
       </c>
       <c r="M12" s="2">
-        <v>0.52100000000000002</v>
+        <v>0.53500000000000003</v>
       </c>
       <c r="N12" s="2">
-        <v>20.7</v>
+        <v>17.7</v>
       </c>
       <c r="O12" s="2">
-        <v>25.2</v>
+        <v>22.6</v>
       </c>
       <c r="P12" s="2">
-        <v>0.82099999999999995</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="Q12" s="2">
-        <v>11.2</v>
+        <v>11</v>
       </c>
       <c r="R12" s="2">
-        <v>34.700000000000003</v>
+        <v>36.9</v>
       </c>
       <c r="S12" s="2">
-        <v>45.9</v>
+        <v>47.8</v>
       </c>
       <c r="T12" s="2">
-        <v>24.3</v>
+        <v>23.7</v>
       </c>
       <c r="U12" s="2">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="V12" s="2">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="W12" s="2">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="X12" s="2">
-        <v>19.899999999999999</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="Y12" s="2">
-        <v>113</v>
+        <v>116.7</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -1991,73 +1990,73 @@
         <v>36</v>
       </c>
       <c r="C13" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2">
-        <v>240</v>
+        <v>241.2</v>
       </c>
       <c r="E13" s="2">
-        <v>39.5</v>
+        <v>39.700000000000003</v>
       </c>
       <c r="F13" s="2">
-        <v>88.1</v>
+        <v>87</v>
       </c>
       <c r="G13" s="2">
-        <v>0.44900000000000001</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="H13" s="2">
-        <v>15.5</v>
+        <v>12.7</v>
       </c>
       <c r="I13" s="2">
-        <v>40.6</v>
+        <v>34.9</v>
       </c>
       <c r="J13" s="2">
-        <v>0.38100000000000001</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="K13" s="2">
-        <v>24.1</v>
+        <v>27</v>
       </c>
       <c r="L13" s="2">
-        <v>47.5</v>
+        <v>52.1</v>
       </c>
       <c r="M13" s="2">
-        <v>0.50700000000000001</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="N13" s="2">
-        <v>17.899999999999999</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="O13" s="2">
-        <v>21.7</v>
+        <v>24.9</v>
       </c>
       <c r="P13" s="2">
-        <v>0.82599999999999996</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="Q13" s="2">
-        <v>9.1999999999999993</v>
+        <v>11.3</v>
       </c>
       <c r="R13" s="2">
-        <v>31.8</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="S13" s="2">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="T13" s="2">
-        <v>25.3</v>
+        <v>24.4</v>
       </c>
       <c r="U13" s="2">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="V13" s="2">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="W13" s="2">
-        <v>13.6</v>
+        <v>14.2</v>
       </c>
       <c r="X13" s="2">
-        <v>22.1</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Y13" s="2">
-        <v>112.4</v>
+        <v>112.6</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2068,73 +2067,73 @@
         <v>37</v>
       </c>
       <c r="C14" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E14" s="2">
-        <v>42</v>
+        <v>39.5</v>
       </c>
       <c r="F14" s="2">
-        <v>86.6</v>
+        <v>88.3</v>
       </c>
       <c r="G14" s="2">
-        <v>0.48599999999999999</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="H14" s="2">
-        <v>10.8</v>
+        <v>15.5</v>
       </c>
       <c r="I14" s="2">
-        <v>30.6</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="J14" s="2">
-        <v>0.35399999999999998</v>
+        <v>0.379</v>
       </c>
       <c r="K14" s="2">
-        <v>31.2</v>
+        <v>24</v>
       </c>
       <c r="L14" s="2">
-        <v>56</v>
+        <v>47.5</v>
       </c>
       <c r="M14" s="2">
-        <v>0.55800000000000005</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="N14" s="2">
-        <v>17.399999999999999</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="O14" s="2">
-        <v>23.3</v>
+        <v>21.6</v>
       </c>
       <c r="P14" s="2">
-        <v>0.749</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="Q14" s="2">
-        <v>9.8000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R14" s="2">
-        <v>35.6</v>
+        <v>31.7</v>
       </c>
       <c r="S14" s="2">
-        <v>45.4</v>
+        <v>40.9</v>
       </c>
       <c r="T14" s="2">
-        <v>24.9</v>
+        <v>25.1</v>
       </c>
       <c r="U14" s="2">
-        <v>7.3</v>
+        <v>8.5</v>
       </c>
       <c r="V14" s="2">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="W14" s="2">
-        <v>15</v>
+        <v>13.6</v>
       </c>
       <c r="X14" s="2">
-        <v>19</v>
+        <v>22.2</v>
       </c>
       <c r="Y14" s="2">
-        <v>112.4</v>
+        <v>112.3</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2145,7 +2144,7 @@
         <v>38</v>
       </c>
       <c r="C15" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D15" s="2">
         <v>240.6</v>
@@ -2154,34 +2153,34 @@
         <v>41.6</v>
       </c>
       <c r="F15" s="2">
-        <v>89.9</v>
+        <v>89.6</v>
       </c>
       <c r="G15" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="H15" s="2">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="I15" s="2">
-        <v>32.1</v>
+        <v>31.8</v>
       </c>
       <c r="J15" s="2">
         <v>0.34399999999999997</v>
       </c>
       <c r="K15" s="2">
-        <v>30.6</v>
+        <v>30.7</v>
       </c>
       <c r="L15" s="2">
         <v>57.8</v>
       </c>
       <c r="M15" s="2">
-        <v>0.52900000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="N15" s="2">
-        <v>20.9</v>
+        <v>20.7</v>
       </c>
       <c r="O15" s="2">
-        <v>27.2</v>
+        <v>27</v>
       </c>
       <c r="P15" s="2">
         <v>0.76700000000000002</v>
@@ -2205,13 +2204,13 @@
         <v>3.5</v>
       </c>
       <c r="W15" s="2">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="X15" s="2">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="Y15" s="2">
-        <v>115.2</v>
+        <v>114.9</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2225,70 +2224,70 @@
         <v>42</v>
       </c>
       <c r="D16" s="2">
-        <v>241.8</v>
+        <v>240.6</v>
       </c>
       <c r="E16" s="2">
-        <v>40.5</v>
+        <v>41.4</v>
       </c>
       <c r="F16" s="2">
-        <v>91.3</v>
+        <v>88.4</v>
       </c>
       <c r="G16" s="2">
-        <v>0.44400000000000001</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="H16" s="2">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="I16" s="2">
-        <v>36.1</v>
+        <v>33.5</v>
       </c>
       <c r="J16" s="2">
-        <v>0.35</v>
+        <v>0.373</v>
       </c>
       <c r="K16" s="2">
-        <v>27.9</v>
+        <v>28.9</v>
       </c>
       <c r="L16" s="2">
-        <v>55.2</v>
+        <v>54.9</v>
       </c>
       <c r="M16" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.52600000000000002</v>
       </c>
       <c r="N16" s="2">
-        <v>15.8</v>
+        <v>16.5</v>
       </c>
       <c r="O16" s="2">
-        <v>20.8</v>
+        <v>21.7</v>
       </c>
       <c r="P16" s="2">
-        <v>0.76100000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="Q16" s="2">
-        <v>10.4</v>
+        <v>11.1</v>
       </c>
       <c r="R16" s="2">
-        <v>32.700000000000003</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="S16" s="2">
-        <v>43.1</v>
+        <v>44</v>
       </c>
       <c r="T16" s="2">
-        <v>25.1</v>
+        <v>22.7</v>
       </c>
       <c r="U16" s="2">
-        <v>8.6999999999999993</v>
+        <v>8</v>
       </c>
       <c r="V16" s="2">
-        <v>5.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="W16" s="2">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="X16" s="2">
-        <v>21.6</v>
+        <v>20.9</v>
       </c>
       <c r="Y16" s="2">
-        <v>109.5</v>
+        <v>111.7</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2302,70 +2301,70 @@
         <v>41</v>
       </c>
       <c r="D17" s="2">
-        <v>240.6</v>
+        <v>242.4</v>
       </c>
       <c r="E17" s="2">
-        <v>41.4</v>
+        <v>42.8</v>
       </c>
       <c r="F17" s="2">
-        <v>88.4</v>
+        <v>87.4</v>
       </c>
       <c r="G17" s="2">
-        <v>0.46800000000000003</v>
+        <v>0.49</v>
       </c>
       <c r="H17" s="2">
-        <v>12.2</v>
+        <v>13.2</v>
       </c>
       <c r="I17" s="2">
-        <v>33</v>
+        <v>34.4</v>
       </c>
       <c r="J17" s="2">
-        <v>0.371</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="K17" s="2">
-        <v>29.1</v>
+        <v>29.6</v>
       </c>
       <c r="L17" s="2">
-        <v>55.4</v>
+        <v>53</v>
       </c>
       <c r="M17" s="2">
-        <v>0.52600000000000002</v>
+        <v>0.55800000000000005</v>
       </c>
       <c r="N17" s="2">
-        <v>16.7</v>
+        <v>15.3</v>
       </c>
       <c r="O17" s="2">
-        <v>22</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="P17" s="2">
-        <v>0.75600000000000001</v>
+        <v>0.82799999999999996</v>
       </c>
       <c r="Q17" s="2">
-        <v>11.2</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R17" s="2">
-        <v>32.700000000000003</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="S17" s="2">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="T17" s="2">
-        <v>22.6</v>
+        <v>27.3</v>
       </c>
       <c r="U17" s="2">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="V17" s="2">
-        <v>5.0999999999999996</v>
+        <v>4.3</v>
       </c>
       <c r="W17" s="2">
-        <v>14.1</v>
+        <v>13.4</v>
       </c>
       <c r="X17" s="2">
-        <v>20.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="Y17" s="2">
-        <v>111.7</v>
+        <v>114.1</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2376,55 +2375,55 @@
         <v>41</v>
       </c>
       <c r="C18" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D18" s="2">
-        <v>242.5</v>
+        <v>242.4</v>
       </c>
       <c r="E18" s="2">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="F18" s="2">
-        <v>89.1</v>
+        <v>88.9</v>
       </c>
       <c r="G18" s="2">
-        <v>0.48199999999999998</v>
+        <v>0.48099999999999998</v>
       </c>
       <c r="H18" s="2">
         <v>13.1</v>
       </c>
       <c r="I18" s="2">
-        <v>34.700000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="J18" s="2">
-        <v>0.378</v>
+        <v>0.38</v>
       </c>
       <c r="K18" s="2">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="L18" s="2">
         <v>54.4</v>
       </c>
       <c r="M18" s="2">
-        <v>0.54800000000000004</v>
+        <v>0.54600000000000004</v>
       </c>
       <c r="N18" s="2">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="O18" s="2">
-        <v>19.2</v>
+        <v>19</v>
       </c>
       <c r="P18" s="2">
-        <v>0.80100000000000005</v>
+        <v>0.80200000000000005</v>
       </c>
       <c r="Q18" s="2">
         <v>9.3000000000000007</v>
       </c>
       <c r="R18" s="2">
-        <v>35.4</v>
+        <v>35.5</v>
       </c>
       <c r="S18" s="2">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="T18" s="2">
         <v>26.4</v>
@@ -2433,16 +2432,16 @@
         <v>6.8</v>
       </c>
       <c r="V18" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="W18" s="2">
-        <v>16</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="X18" s="2">
         <v>20</v>
       </c>
       <c r="Y18" s="2">
-        <v>114.3</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2453,73 +2452,73 @@
         <v>42</v>
       </c>
       <c r="C19" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D19" s="2">
-        <v>242.5</v>
+        <v>243</v>
       </c>
       <c r="E19" s="2">
-        <v>42.8</v>
+        <v>42.2</v>
       </c>
       <c r="F19" s="2">
-        <v>87.4</v>
+        <v>89.1</v>
       </c>
       <c r="G19" s="2">
-        <v>0.49</v>
+        <v>0.47399999999999998</v>
       </c>
       <c r="H19" s="2">
-        <v>13.3</v>
+        <v>12.3</v>
       </c>
       <c r="I19" s="2">
-        <v>34.5</v>
+        <v>33.9</v>
       </c>
       <c r="J19" s="2">
-        <v>0.38700000000000001</v>
+        <v>0.36499999999999999</v>
       </c>
       <c r="K19" s="2">
-        <v>29.5</v>
+        <v>29.9</v>
       </c>
       <c r="L19" s="2">
-        <v>53</v>
+        <v>55.2</v>
       </c>
       <c r="M19" s="2">
-        <v>0.55700000000000005</v>
+        <v>0.54100000000000004</v>
       </c>
       <c r="N19" s="2">
-        <v>15.2</v>
+        <v>16.3</v>
       </c>
       <c r="O19" s="2">
-        <v>18.3</v>
+        <v>20.8</v>
       </c>
       <c r="P19" s="2">
-        <v>0.82899999999999996</v>
+        <v>0.78600000000000003</v>
       </c>
       <c r="Q19" s="2">
-        <v>8.1999999999999993</v>
+        <v>8.6</v>
       </c>
       <c r="R19" s="2">
-        <v>35.1</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="S19" s="2">
-        <v>43.2</v>
+        <v>41.8</v>
       </c>
       <c r="T19" s="2">
-        <v>27.3</v>
+        <v>26.8</v>
       </c>
       <c r="U19" s="2">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="V19" s="2">
-        <v>4.2</v>
+        <v>6.1</v>
       </c>
       <c r="W19" s="2">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="X19" s="2">
-        <v>19.8</v>
+        <v>20.3</v>
       </c>
       <c r="Y19" s="2">
-        <v>114.2</v>
+        <v>113.1</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2530,73 +2529,73 @@
         <v>43</v>
       </c>
       <c r="C20" s="2">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" s="2">
-        <v>242.5</v>
+        <v>241.8</v>
       </c>
       <c r="E20" s="2">
-        <v>42.3</v>
+        <v>40.5</v>
       </c>
       <c r="F20" s="2">
-        <v>88.9</v>
+        <v>91.3</v>
       </c>
       <c r="G20" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.44400000000000001</v>
       </c>
       <c r="H20" s="2">
-        <v>12.3</v>
+        <v>12.6</v>
       </c>
       <c r="I20" s="2">
-        <v>33.6</v>
+        <v>36.1</v>
       </c>
       <c r="J20" s="2">
-        <v>0.36599999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="K20" s="2">
-        <v>30</v>
+        <v>27.9</v>
       </c>
       <c r="L20" s="2">
-        <v>55.3</v>
+        <v>55.2</v>
       </c>
       <c r="M20" s="2">
-        <v>0.54300000000000004</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="N20" s="2">
-        <v>16.3</v>
+        <v>15.8</v>
       </c>
       <c r="O20" s="2">
         <v>20.8</v>
       </c>
       <c r="P20" s="2">
-        <v>0.78400000000000003</v>
+        <v>0.76100000000000001</v>
       </c>
       <c r="Q20" s="2">
-        <v>8.5</v>
+        <v>10.4</v>
       </c>
       <c r="R20" s="2">
-        <v>33.1</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="S20" s="2">
-        <v>41.6</v>
+        <v>43.1</v>
       </c>
       <c r="T20" s="2">
-        <v>26.8</v>
+        <v>25.1</v>
       </c>
       <c r="U20" s="2">
-        <v>8.6</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="V20" s="2">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="W20" s="2">
-        <v>14</v>
+        <v>14.6</v>
       </c>
       <c r="X20" s="2">
-        <v>20.3</v>
+        <v>21.6</v>
       </c>
       <c r="Y20" s="2">
-        <v>113.2</v>
+        <v>109.5</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2607,73 +2606,73 @@
         <v>44</v>
       </c>
       <c r="C21" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D21" s="2">
         <v>240.6</v>
       </c>
       <c r="E21" s="2">
-        <v>41</v>
+        <v>40.6</v>
       </c>
       <c r="F21" s="2">
-        <v>88.4</v>
+        <v>86.1</v>
       </c>
       <c r="G21" s="2">
-        <v>0.46400000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="H21" s="2">
-        <v>13.9</v>
+        <v>13.7</v>
       </c>
       <c r="I21" s="2">
-        <v>36.200000000000003</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="J21" s="2">
-        <v>0.38400000000000001</v>
+        <v>0.36299999999999999</v>
       </c>
       <c r="K21" s="2">
-        <v>27.2</v>
+        <v>26.9</v>
       </c>
       <c r="L21" s="2">
-        <v>52.3</v>
+        <v>48.4</v>
       </c>
       <c r="M21" s="2">
-        <v>0.52</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="N21" s="2">
-        <v>16.5</v>
+        <v>17.2</v>
       </c>
       <c r="O21" s="2">
-        <v>21.2</v>
+        <v>21.9</v>
       </c>
       <c r="P21" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="Q21" s="2">
-        <v>10.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="R21" s="2">
-        <v>33.5</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="S21" s="2">
-        <v>44</v>
+        <v>42.9</v>
       </c>
       <c r="T21" s="2">
-        <v>27.2</v>
+        <v>22.7</v>
       </c>
       <c r="U21" s="2">
-        <v>8.3000000000000007</v>
+        <v>6.2</v>
       </c>
       <c r="V21" s="2">
-        <v>4.7</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W21" s="2">
-        <v>15.6</v>
+        <v>12.3</v>
       </c>
       <c r="X21" s="2">
-        <v>18.5</v>
+        <v>19.8</v>
       </c>
       <c r="Y21" s="2">
-        <v>112.4</v>
+        <v>112.1</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2684,73 +2683,73 @@
         <v>45</v>
       </c>
       <c r="C22" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D22" s="2">
-        <v>241.8</v>
+        <v>240.6</v>
       </c>
       <c r="E22" s="2">
-        <v>38.299999999999997</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="F22" s="2">
-        <v>83.5</v>
+        <v>88.2</v>
       </c>
       <c r="G22" s="2">
-        <v>0.45900000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="H22" s="2">
-        <v>12.6</v>
+        <v>13.9</v>
       </c>
       <c r="I22" s="2">
-        <v>36.5</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="J22" s="2">
-        <v>0.34499999999999997</v>
+        <v>0.38300000000000001</v>
       </c>
       <c r="K22" s="2">
-        <v>25.7</v>
+        <v>26.9</v>
       </c>
       <c r="L22" s="2">
-        <v>47</v>
+        <v>51.9</v>
       </c>
       <c r="M22" s="2">
-        <v>0.54700000000000004</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="N22" s="2">
-        <v>17.100000000000001</v>
+        <v>16.600000000000001</v>
       </c>
       <c r="O22" s="2">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="P22" s="2">
-        <v>0.79600000000000004</v>
+        <v>0.77400000000000002</v>
       </c>
       <c r="Q22" s="2">
-        <v>7.7</v>
+        <v>10.6</v>
       </c>
       <c r="R22" s="2">
-        <v>34.9</v>
+        <v>33.299999999999997</v>
       </c>
       <c r="S22" s="2">
-        <v>42.6</v>
+        <v>43.9</v>
       </c>
       <c r="T22" s="2">
-        <v>25.7</v>
+        <v>27.1</v>
       </c>
       <c r="U22" s="2">
-        <v>7.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="V22" s="2">
-        <v>4</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W22" s="2">
-        <v>15.1</v>
+        <v>15.6</v>
       </c>
       <c r="X22" s="2">
-        <v>19.2</v>
+        <v>18.5</v>
       </c>
       <c r="Y22" s="2">
-        <v>106.4</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2761,73 +2760,73 @@
         <v>46</v>
       </c>
       <c r="C23" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D23" s="2">
-        <v>240.6</v>
+        <v>242.3</v>
       </c>
       <c r="E23" s="2">
-        <v>40.4</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F23" s="2">
-        <v>86.1</v>
+        <v>83.9</v>
       </c>
       <c r="G23" s="2">
-        <v>0.46899999999999997</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="H23" s="2">
-        <v>13.6</v>
+        <v>12.5</v>
       </c>
       <c r="I23" s="2">
-        <v>37.799999999999997</v>
+        <v>36.5</v>
       </c>
       <c r="J23" s="2">
-        <v>0.35899999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="K23" s="2">
-        <v>26.9</v>
+        <v>25.8</v>
       </c>
       <c r="L23" s="2">
-        <v>48.4</v>
+        <v>47.3</v>
       </c>
       <c r="M23" s="2">
-        <v>0.55500000000000005</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="N23" s="2">
         <v>17.2</v>
       </c>
       <c r="O23" s="2">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="P23" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="Q23" s="2">
-        <v>8.1999999999999993</v>
+        <v>7.9</v>
       </c>
       <c r="R23" s="2">
-        <v>34.5</v>
+        <v>34.9</v>
       </c>
       <c r="S23" s="2">
-        <v>42.7</v>
+        <v>42.8</v>
       </c>
       <c r="T23" s="2">
-        <v>22.7</v>
+        <v>25.7</v>
       </c>
       <c r="U23" s="2">
-        <v>6.3</v>
+        <v>7.5</v>
       </c>
       <c r="V23" s="2">
-        <v>4.5999999999999996</v>
+        <v>4</v>
       </c>
       <c r="W23" s="2">
-        <v>12.4</v>
+        <v>15.1</v>
       </c>
       <c r="X23" s="2">
-        <v>19.8</v>
+        <v>19.2</v>
       </c>
       <c r="Y23" s="2">
-        <v>111.6</v>
+        <v>106.3</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2838,73 +2837,73 @@
         <v>47</v>
       </c>
       <c r="C24" s="2">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D24" s="2">
-        <v>243.7</v>
+        <v>240.6</v>
       </c>
       <c r="E24" s="2">
-        <v>38.5</v>
+        <v>38.9</v>
       </c>
       <c r="F24" s="2">
-        <v>86.9</v>
+        <v>85.9</v>
       </c>
       <c r="G24" s="2">
-        <v>0.443</v>
+        <v>0.45300000000000001</v>
       </c>
       <c r="H24" s="2">
-        <v>12.5</v>
+        <v>10.6</v>
       </c>
       <c r="I24" s="2">
-        <v>35.5</v>
+        <v>28.4</v>
       </c>
       <c r="J24" s="2">
-        <v>0.35199999999999998</v>
+        <v>0.374</v>
       </c>
       <c r="K24" s="2">
-        <v>26</v>
+        <v>28.3</v>
       </c>
       <c r="L24" s="2">
-        <v>51.4</v>
+        <v>57.5</v>
       </c>
       <c r="M24" s="2">
-        <v>0.50600000000000001</v>
+        <v>0.49199999999999999</v>
       </c>
       <c r="N24" s="2">
-        <v>18.2</v>
+        <v>16.3</v>
       </c>
       <c r="O24" s="2">
-        <v>23.5</v>
+        <v>21.3</v>
       </c>
       <c r="P24" s="2">
-        <v>0.77500000000000002</v>
+        <v>0.76600000000000001</v>
       </c>
       <c r="Q24" s="2">
-        <v>10.199999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="R24" s="2">
-        <v>32.799999999999997</v>
+        <v>35.6</v>
       </c>
       <c r="S24" s="2">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T24" s="2">
-        <v>24.4</v>
+        <v>20.9</v>
       </c>
       <c r="U24" s="2">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="V24" s="2">
-        <v>5</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="W24" s="2">
-        <v>14.6</v>
+        <v>13.6</v>
       </c>
       <c r="X24" s="2">
-        <v>20.399999999999999</v>
+        <v>20.6</v>
       </c>
       <c r="Y24" s="2">
-        <v>107.6</v>
+        <v>104.7</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2918,70 +2917,70 @@
         <v>42</v>
       </c>
       <c r="D25" s="2">
-        <v>240</v>
+        <v>243.6</v>
       </c>
       <c r="E25" s="2">
-        <v>38.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="F25" s="2">
-        <v>85.9</v>
+        <v>86.7</v>
       </c>
       <c r="G25" s="2">
-        <v>0.45300000000000001</v>
+        <v>0.442</v>
       </c>
       <c r="H25" s="2">
-        <v>10.6</v>
+        <v>12.3</v>
       </c>
       <c r="I25" s="2">
-        <v>28.5</v>
+        <v>35.200000000000003</v>
       </c>
       <c r="J25" s="2">
-        <v>0.372</v>
+        <v>0.34899999999999998</v>
       </c>
       <c r="K25" s="2">
-        <v>28.3</v>
+        <v>26</v>
       </c>
       <c r="L25" s="2">
-        <v>57.3</v>
+        <v>51.5</v>
       </c>
       <c r="M25" s="2">
-        <v>0.49399999999999999</v>
+        <v>0.505</v>
       </c>
       <c r="N25" s="2">
-        <v>16.399999999999999</v>
+        <v>18.2</v>
       </c>
       <c r="O25" s="2">
-        <v>21.3</v>
+        <v>23.5</v>
       </c>
       <c r="P25" s="2">
-        <v>0.77100000000000002</v>
+        <v>0.77300000000000002</v>
       </c>
       <c r="Q25" s="2">
-        <v>10.3</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="R25" s="2">
-        <v>35.700000000000003</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="S25" s="2">
-        <v>46</v>
+        <v>42.9</v>
       </c>
       <c r="T25" s="2">
-        <v>21</v>
+        <v>24.3</v>
       </c>
       <c r="U25" s="2">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="V25" s="2">
-        <v>4.5999999999999996</v>
+        <v>5</v>
       </c>
       <c r="W25" s="2">
-        <v>13.5</v>
+        <v>14.6</v>
       </c>
       <c r="X25" s="2">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="Y25" s="2">
-        <v>104.8</v>
+        <v>107.1</v>
       </c>
     </row>
     <row r="26" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -2992,16 +2991,16 @@
         <v>49</v>
       </c>
       <c r="C26" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" s="2">
         <v>241.8</v>
       </c>
       <c r="E26" s="2">
-        <v>39</v>
+        <v>39.1</v>
       </c>
       <c r="F26" s="2">
-        <v>87.1</v>
+        <v>87.2</v>
       </c>
       <c r="G26" s="2">
         <v>0.44800000000000001</v>
@@ -3016,31 +3015,31 @@
         <v>0.34599999999999997</v>
       </c>
       <c r="K26" s="2">
-        <v>26.2</v>
+        <v>26.3</v>
       </c>
       <c r="L26" s="2">
         <v>50.1</v>
       </c>
       <c r="M26" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.52400000000000002</v>
       </c>
       <c r="N26" s="2">
-        <v>15.2</v>
+        <v>15.3</v>
       </c>
       <c r="O26" s="2">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="P26" s="2">
-        <v>0.74399999999999999</v>
+        <v>0.74199999999999999</v>
       </c>
       <c r="Q26" s="2">
-        <v>8</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="R26" s="2">
-        <v>36.299999999999997</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="S26" s="2">
-        <v>44.3</v>
+        <v>44.5</v>
       </c>
       <c r="T26" s="2">
         <v>22.8</v>
@@ -3049,16 +3048,16 @@
         <v>6.9</v>
       </c>
       <c r="V26" s="2">
-        <v>4.4000000000000004</v>
+        <v>4.3</v>
       </c>
       <c r="W26" s="2">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="X26" s="2">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="Y26" s="2">
-        <v>106</v>
+        <v>106.2</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -3069,46 +3068,46 @@
         <v>50</v>
       </c>
       <c r="C27" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
         <v>240.6</v>
       </c>
       <c r="E27" s="2">
-        <v>38.700000000000003</v>
+        <v>38.5</v>
       </c>
       <c r="F27" s="2">
-        <v>89.6</v>
+        <v>89.4</v>
       </c>
       <c r="G27" s="2">
-        <v>0.432</v>
+        <v>0.43099999999999999</v>
       </c>
       <c r="H27" s="2">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="I27" s="2">
         <v>33.700000000000003</v>
       </c>
       <c r="J27" s="2">
-        <v>0.35799999999999998</v>
+        <v>0.35699999999999998</v>
       </c>
       <c r="K27" s="2">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="L27" s="2">
-        <v>55.9</v>
+        <v>55.7</v>
       </c>
       <c r="M27" s="2">
-        <v>0.47599999999999998</v>
+        <v>0.47499999999999998</v>
       </c>
       <c r="N27" s="2">
-        <v>15.3</v>
+        <v>15.5</v>
       </c>
       <c r="O27" s="2">
-        <v>19.399999999999999</v>
+        <v>19.7</v>
       </c>
       <c r="P27" s="2">
-        <v>0.78800000000000003</v>
+        <v>0.78500000000000003</v>
       </c>
       <c r="Q27" s="2">
         <v>10.5</v>
@@ -3117,10 +3116,10 @@
         <v>36.1</v>
       </c>
       <c r="S27" s="2">
-        <v>46.6</v>
+        <v>46.5</v>
       </c>
       <c r="T27" s="2">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="U27" s="2">
         <v>6.7</v>
@@ -3129,13 +3128,13 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="W27" s="2">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="X27" s="2">
-        <v>16.899999999999999</v>
+        <v>16.8</v>
       </c>
       <c r="Y27" s="2">
-        <v>104.7</v>
+        <v>104.5</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -3146,7 +3145,7 @@
         <v>51</v>
       </c>
       <c r="C28" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D28" s="2">
         <v>240.6</v>
@@ -3155,46 +3154,46 @@
         <v>38.5</v>
       </c>
       <c r="F28" s="2">
-        <v>88.8</v>
+        <v>88.5</v>
       </c>
       <c r="G28" s="2">
-        <v>0.433</v>
+        <v>0.435</v>
       </c>
       <c r="H28" s="2">
         <v>13.1</v>
       </c>
       <c r="I28" s="2">
-        <v>40.299999999999997</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="J28" s="2">
-        <v>0.32500000000000001</v>
+        <v>0.32600000000000001</v>
       </c>
       <c r="K28" s="2">
         <v>25.4</v>
       </c>
       <c r="L28" s="2">
-        <v>48.5</v>
+        <v>48.3</v>
       </c>
       <c r="M28" s="2">
-        <v>0.52300000000000002</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="N28" s="2">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="O28" s="2">
-        <v>22.5</v>
+        <v>22.6</v>
       </c>
       <c r="P28" s="2">
         <v>0.74099999999999999</v>
       </c>
       <c r="Q28" s="2">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="R28" s="2">
-        <v>33.299999999999997</v>
+        <v>33.200000000000003</v>
       </c>
       <c r="S28" s="2">
-        <v>42.4</v>
+        <v>42.3</v>
       </c>
       <c r="T28" s="2">
         <v>22.1</v>
@@ -3203,7 +3202,7 @@
         <v>8</v>
       </c>
       <c r="V28" s="2">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="W28" s="2">
         <v>14.6</v>
@@ -3212,7 +3211,7 @@
         <v>20</v>
       </c>
       <c r="Y28" s="2">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -3223,7 +3222,7 @@
         <v>52</v>
       </c>
       <c r="C29" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D29" s="2">
         <v>243</v>
@@ -3232,49 +3231,49 @@
         <v>39.1</v>
       </c>
       <c r="F29" s="2">
-        <v>86.8</v>
+        <v>86.5</v>
       </c>
       <c r="G29" s="2">
-        <v>0.45100000000000001</v>
+        <v>0.45200000000000001</v>
       </c>
       <c r="H29" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.5</v>
       </c>
       <c r="I29" s="2">
-        <v>27.6</v>
+        <v>27.8</v>
       </c>
       <c r="J29" s="2">
-        <v>0.33800000000000002</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="K29" s="2">
-        <v>29.8</v>
+        <v>29.6</v>
       </c>
       <c r="L29" s="2">
-        <v>59.1</v>
+        <v>58.8</v>
       </c>
       <c r="M29" s="2">
         <v>0.504</v>
       </c>
       <c r="N29" s="2">
-        <v>16.100000000000001</v>
+        <v>16.2</v>
       </c>
       <c r="O29" s="2">
-        <v>22.2</v>
+        <v>22.4</v>
       </c>
       <c r="P29" s="2">
         <v>0.72599999999999998</v>
       </c>
       <c r="Q29" s="2">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="R29" s="2">
-        <v>31.9</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="S29" s="2">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="T29" s="2">
-        <v>23</v>
+        <v>23.2</v>
       </c>
       <c r="U29" s="2">
         <v>8.1</v>
@@ -3283,13 +3282,13 @@
         <v>5.2</v>
       </c>
       <c r="W29" s="2">
-        <v>15.7</v>
+        <v>16</v>
       </c>
       <c r="X29" s="2">
         <v>19.2</v>
       </c>
       <c r="Y29" s="2">
-        <v>103.8</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
@@ -3300,58 +3299,58 @@
         <v>53</v>
       </c>
       <c r="C30" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2">
-        <v>240.7</v>
+        <v>240.6</v>
       </c>
       <c r="E30" s="2">
-        <v>42.2</v>
+        <v>42.1</v>
       </c>
       <c r="F30" s="2">
-        <v>91.3</v>
+        <v>91.4</v>
       </c>
       <c r="G30" s="2">
-        <v>0.46300000000000002</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="H30" s="2">
         <v>10.5</v>
       </c>
       <c r="I30" s="2">
-        <v>30</v>
+        <v>30.1</v>
       </c>
       <c r="J30" s="2">
-        <v>0.34899999999999998</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="K30" s="2">
-        <v>31.8</v>
+        <v>31.6</v>
       </c>
       <c r="L30" s="2">
         <v>61.3</v>
       </c>
       <c r="M30" s="2">
-        <v>0.51800000000000002</v>
+        <v>0.51600000000000001</v>
       </c>
       <c r="N30" s="2">
-        <v>15.9</v>
+        <v>16.2</v>
       </c>
       <c r="O30" s="2">
-        <v>20.3</v>
+        <v>20.6</v>
       </c>
       <c r="P30" s="2">
-        <v>0.78400000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="Q30" s="2">
         <v>10.9</v>
       </c>
       <c r="R30" s="2">
-        <v>34.200000000000003</v>
+        <v>34.5</v>
       </c>
       <c r="S30" s="2">
-        <v>45.1</v>
+        <v>45.5</v>
       </c>
       <c r="T30" s="2">
-        <v>26.6</v>
+        <v>26.5</v>
       </c>
       <c r="U30" s="2">
         <v>9.8000000000000007</v>
@@ -3377,25 +3376,25 @@
         <v>54</v>
       </c>
       <c r="C31" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" s="2">
         <v>241.3</v>
       </c>
       <c r="E31" s="2">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="F31" s="2">
-        <v>90.6</v>
+        <v>90.7</v>
       </c>
       <c r="G31" s="2">
-        <v>0.45700000000000002</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="H31" s="2">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="I31" s="2">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="J31" s="2">
         <v>0.36099999999999999</v>
@@ -3404,22 +3403,22 @@
         <v>30.7</v>
       </c>
       <c r="L31" s="2">
-        <v>60.8</v>
+        <v>60.9</v>
       </c>
       <c r="M31" s="2">
-        <v>0.504</v>
+        <v>0.505</v>
       </c>
       <c r="N31" s="2">
-        <v>16.7</v>
+        <v>16.5</v>
       </c>
       <c r="O31" s="2">
-        <v>21.3</v>
+        <v>21</v>
       </c>
       <c r="P31" s="2">
-        <v>0.78600000000000003</v>
+        <v>0.78700000000000003</v>
       </c>
       <c r="Q31" s="2">
-        <v>9.3000000000000007</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="R31" s="2">
         <v>35.200000000000003</v>
@@ -3428,99 +3427,25 @@
         <v>44.4</v>
       </c>
       <c r="T31" s="2">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="U31" s="2">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="V31" s="2">
         <v>5.0999999999999996</v>
       </c>
       <c r="W31" s="2">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="X31" s="2">
-        <v>17.399999999999999</v>
+        <v>17.2</v>
       </c>
       <c r="Y31" s="2">
-        <v>110.2</v>
+        <v>110.3</v>
       </c>
     </row>
-    <row r="32" spans="1:25" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C32" s="2">
-        <v>41</v>
-      </c>
-      <c r="D32" s="2">
-        <v>241.4</v>
-      </c>
-      <c r="E32" s="2">
-        <v>41.1</v>
-      </c>
-      <c r="F32" s="2">
-        <v>88.3</v>
-      </c>
-      <c r="G32" s="2">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="H32" s="2">
-        <v>12.8</v>
-      </c>
-      <c r="I32" s="2">
-        <v>34.799999999999997</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.36799999999999999</v>
-      </c>
-      <c r="K32" s="2">
-        <v>28.3</v>
-      </c>
-      <c r="L32" s="2">
-        <v>53.5</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="N32" s="2">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="O32" s="2">
-        <v>21.9</v>
-      </c>
-      <c r="P32" s="2">
-        <v>0.77800000000000002</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="R32" s="2">
-        <v>34.5</v>
-      </c>
-      <c r="S32" s="2">
-        <v>44.3</v>
-      </c>
-      <c r="T32" s="2">
-        <v>24.7</v>
-      </c>
-      <c r="U32" s="2">
-        <v>7.6</v>
-      </c>
-      <c r="V32" s="2">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="W32" s="2">
-        <v>14.1</v>
-      </c>
-      <c r="X32" s="2">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>112</v>
-      </c>
-    </row>
+    <row r="32" spans="1:25" ht="14.4" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
